--- a/Bitacora_Etapa_Productiva_semana NUEVE.xlsx
+++ b/Bitacora_Etapa_Productiva_semana NUEVE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDIAZ\Downloads\Etapa productiva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDIAZ\Downloads\Etapa productiva\bitacorasADSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -160,9 +160,6 @@
     <t xml:space="preserve">4. OBSERVACIONES </t>
   </si>
   <si>
-    <t xml:space="preserve">Concepto empresa sobre el desempeño del aprendiz </t>
-  </si>
-  <si>
     <t>Instructor responsable</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>ANALISIS Y DESARROLLO DE SISTEMAS DE  INFORMACIÓN</t>
-  </si>
-  <si>
-    <t>CEDULA</t>
   </si>
   <si>
     <t>GUSTAVO JIMENEZ</t>
@@ -300,6 +294,15 @@
   </si>
   <si>
     <t xml:space="preserve">REALIZAR LA CODIFICACIÓN DE LOS MÓDULOS DEL SISTEMA Y EL PROGRAMAPRINCIPAL, A PARTIR DE LA UTILIZACIÓN DEL LENGUAJE DE PROGRAMACIÓNSELECCIONADO, DE ACUERDO CON LAS ESPECIFICACIONES DEL DISEÑO </t>
+  </si>
+  <si>
+    <t>Programming Backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepto empresa sobre el desempeño del aprendiz : Se cumplio con lo propuesto en el sprint. </t>
+  </si>
+  <si>
+    <t>Tauramena/Casanare</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38:P38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1601,7 @@
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
       <c r="D3" s="127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="128"/>
       <c r="F3" s="128"/>
@@ -1786,7 +1789,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
       <c r="E10" s="97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="98"/>
       <c r="G10" s="98"/>
@@ -1799,7 +1802,7 @@
       <c r="N10" s="98"/>
       <c r="O10" s="99"/>
       <c r="P10" s="96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="96"/>
       <c r="R10" s="96"/>
@@ -1810,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="U10" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V10" s="51">
         <v>2019</v>
@@ -1862,7 +1865,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="100" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M12" s="101"/>
       <c r="N12" s="101"/>
@@ -1877,7 +1880,7 @@
         <v>20</v>
       </c>
       <c r="U12" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V12" s="51">
         <v>2019</v>
@@ -1917,7 +1920,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="107"/>
       <c r="G14" s="107"/>
@@ -1933,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="53">
         <v>2018</v>
@@ -1947,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="U14" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V14" s="51">
         <v>2019</v>
@@ -1987,7 +1990,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="138" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="139"/>
       <c r="G16" s="139"/>
@@ -2050,20 +2053,20 @@
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
       <c r="H18" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="66"/>
       <c r="J18" s="59"/>
       <c r="K18" s="60"/>
       <c r="L18" s="61"/>
       <c r="M18" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18" s="63"/>
       <c r="O18" s="63"/>
       <c r="P18" s="64"/>
       <c r="Q18" s="58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R18" s="58"/>
       <c r="S18" s="58"/>
@@ -2234,7 +2237,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="115" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="107"/>
       <c r="H25" s="107"/>
@@ -2288,7 +2291,7 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="115" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="107"/>
       <c r="F27" s="107"/>
@@ -2301,7 +2304,7 @@
         <v>20</v>
       </c>
       <c r="M27" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N27" s="58"/>
       <c r="O27" s="58"/>
@@ -2311,7 +2314,7 @@
       </c>
       <c r="R27" s="49"/>
       <c r="S27" s="58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T27" s="58"/>
       <c r="U27" s="58"/>
@@ -2350,7 +2353,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="115" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="107"/>
       <c r="F29" s="107"/>
@@ -2362,7 +2365,7 @@
       </c>
       <c r="K29" s="63"/>
       <c r="L29" s="115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M29" s="107"/>
       <c r="N29" s="107"/>
@@ -2371,7 +2374,9 @@
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="115"/>
+      <c r="R29" s="115" t="s">
+        <v>72</v>
+      </c>
       <c r="S29" s="107"/>
       <c r="T29" s="107"/>
       <c r="U29" s="107"/>
@@ -2407,7 +2412,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="106" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" s="107"/>
       <c r="E31" s="107"/>
@@ -2415,14 +2420,14 @@
       <c r="G31" s="107"/>
       <c r="H31" s="108"/>
       <c r="I31" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J31" s="114"/>
       <c r="K31" s="36" t="s">
         <v>27</v>
       </c>
       <c r="L31" s="112" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M31" s="112"/>
       <c r="N31" s="112"/>
@@ -2542,7 +2547,7 @@
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -2559,13 +2564,13 @@
       <c r="M36" s="68"/>
       <c r="N36" s="79"/>
       <c r="O36" s="82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P36" s="82"/>
       <c r="Q36" s="82"/>
       <c r="R36" s="82"/>
       <c r="S36" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T36" s="85"/>
       <c r="U36" s="85"/>
@@ -2602,13 +2607,13 @@
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="74"/>
       <c r="D38" s="74"/>
       <c r="E38" s="75"/>
       <c r="F38" s="76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" s="77"/>
       <c r="H38" s="77"/>
@@ -2634,13 +2639,13 @@
     </row>
     <row r="39" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
       <c r="E39" s="75"/>
       <c r="F39" s="76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G39" s="77"/>
       <c r="H39" s="77"/>
@@ -2768,7 +2773,7 @@
     </row>
     <row r="44" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="55" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C44" s="56"/>
       <c r="D44" s="56"/>
@@ -2974,13 +2979,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2988,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2014</v>
@@ -2999,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2015</v>
@@ -3010,7 +3015,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2016</v>
@@ -3021,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>2017</v>
@@ -3032,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>2018</v>
@@ -3043,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3051,7 +3056,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,7 +3064,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,7 +3072,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3083,7 +3088,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3091,7 +3096,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
